--- a/صيدليات دكتور مصطفي طلعت_2025-12-23_08-41.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2025-12-23_08-41.xlsx
@@ -128,6 +128,12 @@
     <t>210.0000</t>
   </si>
   <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>BETADINE ANTISEPTIC SOLN. 10% 60 ML</t>
   </si>
   <si>
@@ -431,7 +437,7 @@
     <t>48.00</t>
   </si>
   <si>
-    <t>63.8400</t>
+    <t>79.6800</t>
   </si>
   <si>
     <t>DOLPHIN 12.5MG 10 SUPP</t>
@@ -461,6 +467,12 @@
     <t>135.0000</t>
   </si>
   <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
     <t>FROST TOPICAL SPRAY 100 ML</t>
   </si>
   <si>
@@ -788,304 +800,322 @@
     <t>RAMECEFTRAX 1 GM I.M. VIAL</t>
   </si>
   <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>7.1400</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>14.1000</t>
+  </si>
+  <si>
+    <t>SEROPIPE HAIR SERUM 100 ML</t>
+  </si>
+  <si>
+    <t>295.00</t>
+  </si>
+  <si>
+    <t>295.0000</t>
+  </si>
+  <si>
+    <t>STARKOPREX 5MG 30 TABS</t>
+  </si>
+  <si>
+    <t>252.00</t>
+  </si>
+  <si>
+    <t>168.8400</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>136.5000</t>
+  </si>
+  <si>
+    <t>SUPRAX 100MG/5 ML SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>TEBOFORTIN 40MG/ML ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>TERBIN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>16.50</t>
+  </si>
+  <si>
+    <t>16.5000</t>
+  </si>
+  <si>
+    <t>TREFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>TRIO-CLAR 42 CAP</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>440.0000</t>
+  </si>
+  <si>
+    <t>TUSSISTOP 60 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>UNITRIN 25MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>261.00</t>
+  </si>
+  <si>
+    <t>86.1300</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>VERSERC 16MG 30 TAB</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>VIOTIC EAR DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>VITAMOUNT FOR WOMEN 15 S.G. CAPS</t>
+  </si>
+  <si>
+    <t>80.4000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>101.4900</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>7877:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>22.5000</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>XITHRONE 200 MG/5ML SUSP. 25 ML</t>
+  </si>
+  <si>
+    <t>ZINOL 1GM I.M./I.V. VIAL</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>ZITHOTRAC 500 MG 3 TAB</t>
+  </si>
+  <si>
+    <t>ZYRTEC 0.1% SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>اربه مياه</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>ببرونه الجو كبيره</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بلاستر 2سم </t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>48:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t>بودره نونو50ملل</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جنتيانا </t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>حامل زراع زولا</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>حفاضات كبار سن ماكسويل 63ق</t>
+  </si>
+  <si>
+    <t>0:29</t>
+  </si>
+  <si>
+    <t>420.00</t>
+  </si>
+  <si>
+    <t>58.8000</t>
+  </si>
+  <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زبدة كاكاو لونا </t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>-2:0</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
     <t>7:0</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>1:7</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>14.1000</t>
-  </si>
-  <si>
-    <t>SEROPIPE HAIR SERUM 100 ML</t>
-  </si>
-  <si>
-    <t>295.00</t>
-  </si>
-  <si>
-    <t>295.0000</t>
-  </si>
-  <si>
-    <t>STARKOPREX 5MG 30 TABS</t>
-  </si>
-  <si>
-    <t>252.00</t>
-  </si>
-  <si>
-    <t>168.8400</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>136.5000</t>
-  </si>
-  <si>
-    <t>SUPRAX 100MG/5 ML SUSP. 30ML</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>24.7500</t>
-  </si>
-  <si>
-    <t>TEBOFORTIN 40MG/ML ORAL DROPS 30 ML</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>TERBIN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>16.50</t>
-  </si>
-  <si>
-    <t>16.5000</t>
-  </si>
-  <si>
-    <t>TREFLUCAN 150MG 1 CAPS.</t>
-  </si>
-  <si>
-    <t>TRIO-CLAR 42 CAP</t>
-  </si>
-  <si>
-    <t>220.00</t>
-  </si>
-  <si>
-    <t>440.0000</t>
-  </si>
-  <si>
-    <t>TUSSISTOP 60 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>UNITRIN 25MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>261.00</t>
-  </si>
-  <si>
-    <t>86.1300</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>VERSERC 16MG 30 TAB</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>57.4200</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>VIOTIC EAR DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>VITAMOUNT FOR WOMEN 15 S.G. CAPS</t>
-  </si>
-  <si>
-    <t>80.4000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>101.4900</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>7877:0</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>22.5000</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>XITHRONE 200 MG/5ML SUSP. 25 ML</t>
-  </si>
-  <si>
-    <t>ZINOL 1GM I.M./I.V. VIAL</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>ZITHOTRAC 500 MG 3 TAB</t>
-  </si>
-  <si>
-    <t>ZYRTEC 0.1% SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>اربه مياه</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>ببرونه الجو كبيره</t>
-  </si>
-  <si>
-    <t xml:space="preserve">بلاستر 2سم </t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2.5 سم</t>
-  </si>
-  <si>
-    <t>48:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>بودره نلج اكياس</t>
-  </si>
-  <si>
-    <t>25:0</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t>بودره نونو50ملل</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جنتيانا </t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>حامل زراع زولا</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>حفاضات كبار سن ماكسويل 63ق</t>
-  </si>
-  <si>
-    <t>0:29</t>
-  </si>
-  <si>
-    <t>420.00</t>
-  </si>
-  <si>
-    <t>58.8000</t>
-  </si>
-  <si>
-    <t>حنه جلوري سوده 1 كيس</t>
-  </si>
-  <si>
-    <t xml:space="preserve">زبدة كاكاو لونا </t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>-1:0</t>
-  </si>
-  <si>
-    <t>14.0000</t>
   </si>
   <si>
     <t>شاش 5سم</t>
@@ -2033,7 +2063,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -2043,14 +2073,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -2059,14 +2089,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -2076,7 +2106,7 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
@@ -2099,7 +2129,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2109,11 +2139,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>17</v>
@@ -2125,14 +2155,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2142,11 +2172,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>17</v>
@@ -2158,14 +2188,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2175,11 +2205,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>17</v>
@@ -2191,28 +2221,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>17</v>
@@ -2224,28 +2254,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>17</v>
@@ -2257,14 +2287,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2274,14 +2304,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2290,14 +2320,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2307,14 +2337,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2323,14 +2353,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2340,14 +2370,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2363,7 +2393,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2373,11 +2403,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>15</v>
@@ -2389,14 +2419,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2406,14 +2436,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2422,14 +2452,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2439,11 +2469,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>17</v>
@@ -2455,14 +2485,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2472,14 +2502,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2495,7 +2525,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2505,11 +2535,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>15</v>
@@ -2521,14 +2551,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2538,7 +2568,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -2561,7 +2591,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2571,11 +2601,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>15</v>
@@ -2587,14 +2617,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2604,14 +2634,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2627,7 +2657,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2637,14 +2667,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>74</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2653,14 +2683,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2674,10 +2704,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2686,14 +2716,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2703,14 +2733,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2719,14 +2749,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2736,14 +2766,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2752,14 +2782,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2769,14 +2799,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2785,14 +2815,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2802,14 +2832,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2818,14 +2848,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2835,11 +2865,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>15</v>
@@ -2851,28 +2881,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>15</v>
@@ -2891,24 +2921,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2917,14 +2947,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2934,14 +2964,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2950,28 +2980,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>15</v>
@@ -2996,18 +3026,18 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>128</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -3016,14 +3046,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3033,14 +3063,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>15</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3049,14 +3079,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3066,14 +3096,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3082,7 +3112,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -3099,14 +3129,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3115,14 +3145,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3132,11 +3162,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>29</v>
@@ -3148,14 +3178,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3165,14 +3195,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>17</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3181,14 +3211,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3198,11 +3228,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>17</v>
@@ -3214,14 +3244,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3231,14 +3261,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3247,14 +3277,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3264,14 +3294,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3287,7 +3317,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3297,11 +3327,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>17</v>
@@ -3313,14 +3343,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3330,14 +3360,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3353,7 +3383,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3370,7 +3400,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3386,7 +3416,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3396,14 +3426,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3412,14 +3442,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3429,11 +3459,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>15</v>
@@ -3445,14 +3475,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3462,14 +3492,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3478,14 +3508,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3495,14 +3525,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3511,31 +3541,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3544,14 +3574,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3561,11 +3591,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>17</v>
@@ -3577,14 +3607,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3594,14 +3624,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3610,14 +3640,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3627,11 +3657,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>17</v>
@@ -3643,31 +3673,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3676,14 +3706,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>184</v>
+        <v>17</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3693,14 +3723,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>186</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3709,14 +3739,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3726,14 +3756,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3742,14 +3772,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>188</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3759,14 +3789,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>17</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3775,7 +3805,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3792,11 +3822,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>17</v>
@@ -3808,7 +3838,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3825,11 +3855,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>17</v>
@@ -3854,7 +3884,7 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3891,11 +3921,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>17</v>
@@ -3907,28 +3937,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>59</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>17</v>
@@ -3940,7 +3970,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3957,7 +3987,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3980,7 +4010,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3990,11 +4020,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>61</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>17</v>
@@ -4006,7 +4036,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -4023,14 +4053,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4039,14 +4069,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4056,11 +4086,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>17</v>
@@ -4072,14 +4102,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4089,14 +4119,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>13</v>
+        <v>213</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4112,24 +4142,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4138,14 +4168,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4155,14 +4185,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>218</v>
+        <v>13</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4171,31 +4201,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4204,14 +4234,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4221,11 +4251,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>17</v>
@@ -4237,14 +4267,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4254,14 +4284,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>95</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>98</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4270,14 +4300,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4287,14 +4317,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>59</v>
+        <v>228</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4303,14 +4333,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>232</v>
+        <v>29</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4320,14 +4350,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>97</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4336,14 +4366,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>233</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4353,14 +4383,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>203</v>
+        <v>61</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4369,14 +4399,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4386,14 +4416,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>63</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4402,14 +4432,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>238</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4419,14 +4449,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4435,14 +4465,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4452,14 +4482,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>65</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4468,31 +4498,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>17</v>
+        <v>242</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4501,14 +4531,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4518,14 +4548,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>164</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>24</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4541,13 +4571,13 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
@@ -4555,10 +4585,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4567,14 +4597,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>17</v>
+        <v>251</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4584,14 +4614,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>168</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4600,14 +4630,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4617,14 +4647,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>63</v>
+        <v>253</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4673,7 +4703,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4683,14 +4713,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4699,14 +4729,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>263</v>
+        <v>17</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4716,14 +4746,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4732,14 +4762,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>233</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4749,14 +4779,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>17</v>
+        <v>85</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4765,14 +4795,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>17</v>
+        <v>266</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4782,14 +4812,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>105</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>98</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4798,14 +4828,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>98</v>
+        <v>269</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4815,14 +4845,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4831,14 +4861,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4848,11 +4878,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>17</v>
@@ -4864,14 +4894,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4881,14 +4911,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4897,14 +4927,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4914,11 +4944,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>147</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>17</v>
@@ -4930,7 +4960,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4947,11 +4977,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>13</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>17</v>
@@ -4963,14 +4993,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4980,14 +5010,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4996,14 +5026,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5013,14 +5043,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>106</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>261</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5036,7 +5066,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5046,14 +5076,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>290</v>
+        <v>13</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5062,14 +5092,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5079,7 +5109,7 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>185</v>
+        <v>292</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
@@ -5102,7 +5132,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5112,14 +5142,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>295</v>
+        <v>108</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5128,14 +5158,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>298</v>
+        <v>22</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5145,14 +5175,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>59</v>
+        <v>297</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>60</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5168,7 +5198,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5178,14 +5208,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5194,14 +5224,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5211,14 +5241,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5227,14 +5257,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5244,11 +5274,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>17</v>
@@ -5267,7 +5297,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>307</v>
+        <v>100</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5277,14 +5307,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>32</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>186</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5293,14 +5323,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5310,14 +5340,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>136</v>
+        <v>310</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5326,14 +5356,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5343,14 +5373,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>311</v>
+        <v>23</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>312</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>313</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5359,14 +5389,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5376,14 +5406,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>317</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>318</v>
+        <v>190</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5392,7 +5422,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5409,14 +5439,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>118</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5425,14 +5455,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>318</v>
+        <v>188</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5442,14 +5472,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>139</v>
+        <v>318</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>11</v>
+        <v>320</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5458,31 +5488,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>17</v>
+        <v>322</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>13</v>
+        <v>323</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>17</v>
+        <v>325</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5491,14 +5521,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5508,11 +5538,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>311</v>
+        <v>119</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>324</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>17</v>
@@ -5524,31 +5554,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>22</v>
+        <v>325</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>279</v>
+        <v>141</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5557,14 +5587,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>298</v>
+        <v>17</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5574,11 +5604,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>212</v>
+        <v>13</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>17</v>
@@ -5590,31 +5620,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>329</v>
+        <v>76</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>242</v>
+        <v>318</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5623,14 +5653,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>332</v>
+        <v>22</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5640,14 +5670,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>284</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5663,7 +5693,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5673,11 +5703,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>336</v>
+        <v>216</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>337</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>17</v>
@@ -5689,14 +5719,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>74</v>
+        <v>336</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5706,14 +5736,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>339</v>
+        <v>246</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5722,14 +5752,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5739,11 +5769,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>242</v>
+        <v>340</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>11</v>
@@ -5762,7 +5792,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>51</v>
+        <v>342</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5772,14 +5802,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>293</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>83</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5788,14 +5818,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5805,11 +5835,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>233</v>
+        <v>346</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>17</v>
@@ -5821,14 +5851,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5838,14 +5868,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>346</v>
+        <v>246</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>238</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5861,7 +5891,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>318</v>
+        <v>53</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5871,14 +5901,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>31</v>
+        <v>228</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>32</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>17</v>
+        <v>85</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5894,7 +5924,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>350</v>
+        <v>22</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5904,11 +5934,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>225</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>17</v>
@@ -5927,7 +5957,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>22</v>
+        <v>352</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5937,14 +5967,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>11</v>
+        <v>242</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5953,14 +5983,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>22</v>
+        <v>325</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5970,14 +6000,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>355</v>
+        <v>31</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>284</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>335</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -6003,14 +6033,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>355</v>
+        <v>228</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>358</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>259</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -6019,14 +6049,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6036,14 +6066,14 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>17</v>
+        <v>76</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6052,14 +6082,14 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6069,14 +6099,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>363</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>17</v>
+        <v>365</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6085,14 +6115,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6102,14 +6132,14 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>11</v>
+        <v>368</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6118,14 +6148,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>17</v>
+        <v>325</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6135,11 +6165,11 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>203</v>
+        <v>343</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>204</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q138" s="12">
         <v>17</v>
@@ -6151,14 +6181,14 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>83</v>
+        <v>371</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
@@ -6168,11 +6198,11 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>120</v>
+        <v>372</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>17</v>
@@ -6184,14 +6214,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6201,14 +6231,14 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>40</v>
+        <v>376</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>41</v>
+        <v>373</v>
       </c>
       <c t="s" r="Q140" s="12">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
@@ -6217,14 +6247,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>373</v>
+        <v>17</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6234,11 +6264,11 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>17</v>
@@ -6250,14 +6280,14 @@
       </c>
       <c r="B142" s="7"/>
       <c t="s" r="C142" s="8">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8"/>
       <c t="s" r="H142" s="9">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
@@ -6267,14 +6297,14 @@
       </c>
       <c r="M142" s="10"/>
       <c t="s" r="N142" s="8">
-        <v>242</v>
+        <v>122</v>
       </c>
       <c r="O142" s="8"/>
       <c t="s" r="P142" s="11">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c t="s" r="Q142" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" ht="24.75" customHeight="1">
@@ -6283,14 +6313,14 @@
       </c>
       <c r="B143" s="7"/>
       <c t="s" r="C143" s="8">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
       <c r="G143" s="8"/>
       <c t="s" r="H143" s="9">
-        <v>83</v>
+        <v>381</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
@@ -6300,11 +6330,11 @@
       </c>
       <c r="M143" s="10"/>
       <c t="s" r="N143" s="8">
-        <v>212</v>
+        <v>42</v>
       </c>
       <c r="O143" s="8"/>
       <c t="s" r="P143" s="11">
-        <v>213</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q143" s="12">
         <v>17</v>
@@ -6316,14 +6346,14 @@
       </c>
       <c r="B144" s="7"/>
       <c t="s" r="C144" s="8">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
       <c r="G144" s="8"/>
       <c t="s" r="H144" s="9">
-        <v>11</v>
+        <v>383</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
@@ -6333,11 +6363,11 @@
       </c>
       <c r="M144" s="10"/>
       <c t="s" r="N144" s="8">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="O144" s="8"/>
       <c t="s" r="P144" s="11">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q144" s="12">
         <v>17</v>
@@ -6349,14 +6379,14 @@
       </c>
       <c r="B145" s="7"/>
       <c t="s" r="C145" s="8">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
       <c t="s" r="H145" s="9">
-        <v>350</v>
+        <v>22</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
@@ -6366,14 +6396,14 @@
       </c>
       <c r="M145" s="10"/>
       <c t="s" r="N145" s="8">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="O145" s="8"/>
       <c t="s" r="P145" s="11">
-        <v>213</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q145" s="12">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146" ht="25.5" customHeight="1">
@@ -6382,14 +6412,14 @@
       </c>
       <c r="B146" s="7"/>
       <c t="s" r="C146" s="8">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
       <c r="G146" s="8"/>
       <c t="s" r="H146" s="9">
-        <v>379</v>
+        <v>85</v>
       </c>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
@@ -6399,51 +6429,150 @@
       </c>
       <c r="M146" s="10"/>
       <c t="s" r="N146" s="8">
-        <v>63</v>
+        <v>216</v>
       </c>
       <c r="O146" s="8"/>
       <c t="s" r="P146" s="11">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q146" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" ht="25.5" customHeight="1">
+      <c r="A147" s="7">
+        <v>141</v>
+      </c>
+      <c r="B147" s="7"/>
+      <c t="s" r="C147" s="8">
+        <v>386</v>
+      </c>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c t="s" r="H147" s="9">
         <v>11</v>
       </c>
-    </row>
-    <row r="147" ht="26.25" customHeight="1">
-      <c r="N147" s="13">
-        <v>9829.5550000000003</v>
-      </c>
-      <c r="O147" s="13"/>
-      <c r="P147" s="13"/>
-      <c r="Q147" s="13"/>
-    </row>
-    <row r="148" ht="16.5" customHeight="1">
-      <c t="s" r="A148" s="14">
-        <v>380</v>
-      </c>
-      <c r="B148" s="14"/>
-      <c r="C148" s="14"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="14"/>
-      <c r="F148" s="14"/>
-      <c t="s" r="G148" s="15">
-        <v>381</v>
-      </c>
-      <c r="H148" s="15"/>
-      <c r="I148" s="15"/>
-      <c r="J148" s="16"/>
-      <c t="s" r="K148" s="17">
-        <v>382</v>
-      </c>
-      <c r="L148" s="17"/>
-      <c r="M148" s="17"/>
-      <c r="N148" s="17"/>
-      <c r="O148" s="17"/>
-      <c r="P148" s="17"/>
-      <c r="Q148" s="17"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="9"/>
+      <c t="s" r="L147" s="10">
+        <v>12</v>
+      </c>
+      <c r="M147" s="10"/>
+      <c t="s" r="N147" s="8">
+        <v>216</v>
+      </c>
+      <c r="O147" s="8"/>
+      <c t="s" r="P147" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q147" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" ht="24.75" customHeight="1">
+      <c r="A148" s="7">
+        <v>142</v>
+      </c>
+      <c r="B148" s="7"/>
+      <c t="s" r="C148" s="8">
+        <v>387</v>
+      </c>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c t="s" r="H148" s="9">
+        <v>357</v>
+      </c>
+      <c r="I148" s="9"/>
+      <c r="J148" s="9"/>
+      <c r="K148" s="9"/>
+      <c t="s" r="L148" s="10">
+        <v>12</v>
+      </c>
+      <c r="M148" s="10"/>
+      <c t="s" r="N148" s="8">
+        <v>216</v>
+      </c>
+      <c r="O148" s="8"/>
+      <c t="s" r="P148" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q148" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" ht="25.5" customHeight="1">
+      <c r="A149" s="7">
+        <v>143</v>
+      </c>
+      <c r="B149" s="7"/>
+      <c t="s" r="C149" s="8">
+        <v>388</v>
+      </c>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c t="s" r="H149" s="9">
+        <v>389</v>
+      </c>
+      <c r="I149" s="9"/>
+      <c r="J149" s="9"/>
+      <c r="K149" s="9"/>
+      <c t="s" r="L149" s="10">
+        <v>12</v>
+      </c>
+      <c r="M149" s="10"/>
+      <c t="s" r="N149" s="8">
+        <v>65</v>
+      </c>
+      <c r="O149" s="8"/>
+      <c t="s" r="P149" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q149" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" ht="25.5" customHeight="1">
+      <c r="N150" s="13">
+        <v>10096.535</v>
+      </c>
+      <c r="O150" s="13"/>
+      <c r="P150" s="13"/>
+      <c r="Q150" s="13"/>
+    </row>
+    <row r="151" ht="16.5" customHeight="1">
+      <c t="s" r="A151" s="14">
+        <v>390</v>
+      </c>
+      <c r="B151" s="14"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="14"/>
+      <c t="s" r="G151" s="15">
+        <v>391</v>
+      </c>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="16"/>
+      <c t="s" r="K151" s="17">
+        <v>392</v>
+      </c>
+      <c r="L151" s="17"/>
+      <c r="M151" s="17"/>
+      <c r="N151" s="17"/>
+      <c r="O151" s="17"/>
+      <c r="P151" s="17"/>
+      <c r="Q151" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="712">
+  <mergeCells count="727">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -7152,10 +7281,25 @@
     <mergeCell ref="H146:K146"/>
     <mergeCell ref="L146:M146"/>
     <mergeCell ref="N146:O146"/>
-    <mergeCell ref="N147:Q147"/>
-    <mergeCell ref="A148:F148"/>
-    <mergeCell ref="G148:I148"/>
-    <mergeCell ref="K148:Q148"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="C147:G147"/>
+    <mergeCell ref="H147:K147"/>
+    <mergeCell ref="L147:M147"/>
+    <mergeCell ref="N147:O147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="C148:G148"/>
+    <mergeCell ref="H148:K148"/>
+    <mergeCell ref="L148:M148"/>
+    <mergeCell ref="N148:O148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="C149:G149"/>
+    <mergeCell ref="H149:K149"/>
+    <mergeCell ref="L149:M149"/>
+    <mergeCell ref="N149:O149"/>
+    <mergeCell ref="N150:Q150"/>
+    <mergeCell ref="A151:F151"/>
+    <mergeCell ref="G151:I151"/>
+    <mergeCell ref="K151:Q151"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
